--- a/data/P8_vasc_raw.xlsx
+++ b/data/P8_vasc_raw.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BunBun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delphine\Documents\SEAFILE Delphine\2. RECHERCHE\Article Agalic vasc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBB204-B3AF-4C0A-98F3-61A73754D11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Main Results" sheetId="1" r:id="rId1"/>
@@ -18,20 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -248,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,6 +455,16 @@
     <xf numFmtId="11" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,6 +484,7 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -563,6 +560,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1187,6 +1185,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1293,6 +1292,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1859,6 +1859,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3093,7 +3094,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Réseau total"/>
@@ -3162,9 +3163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3202,9 +3203,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3239,7 +3240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3274,7 +3275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3447,11 +3448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J1:J1048576"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,8 +3465,7 @@
     <col min="6" max="6" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="2"/>
+    <col min="10" max="13" width="9" style="2"/>
     <col min="14" max="15" width="12" style="2" customWidth="1"/>
     <col min="16" max="16" width="9" style="2"/>
     <col min="17" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -3949,10 +3949,10 @@
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="28">
         <v>8371640000</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="28">
         <v>49951500</v>
       </c>
       <c r="E7" s="2">
@@ -4185,10 +4185,10 @@
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="28">
         <v>9204210000</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="28">
         <v>56816400</v>
       </c>
       <c r="E8" s="2">
@@ -4421,10 +4421,10 @@
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="28">
         <v>7924320000</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="28">
         <v>50553400</v>
       </c>
       <c r="E9" s="2">
@@ -4657,10 +4657,10 @@
       <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="28">
         <v>6551910000</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="28">
         <v>54438600</v>
       </c>
       <c r="E10" s="2">
@@ -4893,75 +4893,75 @@
       <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="29">
         <f>AVERAGE(C7:C10)</f>
         <v>8013020000</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="29">
         <f t="shared" ref="D11:P11" si="0">AVERAGE(D7:D10)</f>
         <v>52939975</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>9933236.4362940006</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="31">
         <f t="shared" si="0"/>
         <v>4355830.8081055004</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
         <v>17455169.02977575</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="31">
         <f t="shared" si="0"/>
         <v>309396.25</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="31">
         <f t="shared" si="0"/>
         <v>11801.5</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="31">
         <f t="shared" si="0"/>
         <v>511878.25</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="31">
         <f t="shared" si="0"/>
         <v>0.11798625</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="31">
         <f t="shared" si="0"/>
         <v>0.66330650000000002</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="31">
         <f t="shared" si="0"/>
         <v>8.4796790000000009</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="31">
         <f t="shared" si="0"/>
         <v>1.05000425</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="31">
         <f t="shared" si="0"/>
         <v>20.969897500000002</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="31">
         <f t="shared" si="0"/>
         <v>33.848610000000001</v>
       </c>
     </row>
     <row r="12" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="28">
         <v>10783700000</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="28">
         <v>66463800</v>
       </c>
       <c r="E13" s="2">
@@ -5194,10 +5194,10 @@
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="28">
         <v>9633740000</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="28">
         <v>63468500</v>
       </c>
       <c r="E14" s="2">
@@ -5430,10 +5430,10 @@
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="28">
         <v>11200200000</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="28">
         <v>65430200</v>
       </c>
       <c r="E15" s="2">
@@ -5666,10 +5666,10 @@
       <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="28">
         <v>11345800000</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="28">
         <v>70115800</v>
       </c>
       <c r="E16" s="2">
@@ -5902,11 +5902,11 @@
       <c r="B17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="29">
         <f>AVERAGE(C13:C16)</f>
         <v>10740860000</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="29">
         <f>AVERAGE(D13:D16)</f>
         <v>66369575</v>
       </c>
@@ -5960,21 +5960,21 @@
       </c>
     </row>
     <row r="18" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="28">
         <v>8371640000</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="28">
         <v>49951500</v>
       </c>
       <c r="E20" s="2">
@@ -6207,10 +6207,10 @@
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="28">
         <v>9204210000</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="28">
         <v>56816400</v>
       </c>
       <c r="E21" s="2">
@@ -6443,10 +6443,10 @@
       <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="28">
         <v>7924320000</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="28">
         <v>50553400</v>
       </c>
       <c r="E22" s="2">
@@ -6679,10 +6679,10 @@
       <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="28">
         <v>6551910000</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="28">
         <v>54438600</v>
       </c>
       <c r="E23" s="2">
@@ -6915,149 +6915,149 @@
       <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="29">
         <f>AVERAGE(C20:C23)</f>
         <v>8013020000</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="29">
         <f t="shared" ref="D24:P24" si="2">AVERAGE(D20:D23)</f>
         <v>52939975</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="31">
         <f t="shared" si="2"/>
         <v>3176356.2452480001</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="31">
         <f t="shared" si="2"/>
         <v>793904.62164975004</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="31">
         <f t="shared" si="2"/>
         <v>3576788.2004479999</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="31">
         <f t="shared" si="2"/>
         <v>42708</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="31">
         <f t="shared" si="2"/>
         <v>10442.5</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="31">
         <f t="shared" si="2"/>
         <v>72436.25</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="31">
         <f t="shared" si="2"/>
         <v>9.3376250000000008E-2</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="31">
         <f t="shared" si="2"/>
         <v>0.75834100000000004</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="31">
         <f t="shared" si="2"/>
         <v>10.756799000000001</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="31">
         <f t="shared" si="2"/>
         <v>1.0759395</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="31">
         <f t="shared" si="2"/>
         <v>52.288238249999992</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="31">
         <f t="shared" si="2"/>
         <v>50.45971625</v>
       </c>
     </row>
     <row r="25" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="24">
+        <v>47</v>
+      </c>
+      <c r="C26" s="28">
         <v>10783700000</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="28">
         <v>66463800</v>
       </c>
       <c r="E26" s="2">
-        <v>9592578.9922240004</v>
+        <v>2349516.2988229999</v>
       </c>
       <c r="F26" s="2">
-        <v>1302379.2850959999</v>
+        <v>817035.24362700002</v>
       </c>
       <c r="G26" s="2">
-        <v>6052516.9001110001</v>
+        <v>3852955.9424840002</v>
       </c>
       <c r="H26" s="2">
-        <v>70124</v>
+        <v>39106</v>
       </c>
       <c r="I26" s="2">
-        <v>16700</v>
+        <v>16907</v>
       </c>
       <c r="J26" s="2">
-        <v>118175</v>
+        <v>69549</v>
       </c>
       <c r="K26" s="2">
-        <v>9.0737999999999999E-2</v>
+        <v>8.5124000000000005E-2</v>
       </c>
       <c r="L26" s="2">
-        <v>0.74348199999999998</v>
+        <v>0.769675</v>
       </c>
       <c r="M26" s="2">
-        <v>11.020768</v>
+        <v>11.74762</v>
       </c>
       <c r="N26" s="2">
-        <v>1.0713729999999999</v>
+        <v>1.0938699999999999</v>
       </c>
       <c r="O26" s="2">
-        <v>81.172658999999996</v>
+        <v>33.782172000000003</v>
       </c>
       <c r="P26" s="2">
-        <v>51.216558999999997</v>
+        <v>55.399157000000002</v>
       </c>
       <c r="Q26" s="2">
-        <v>102244</v>
+        <v>58388</v>
       </c>
       <c r="R26" s="2">
-        <v>14672</v>
+        <v>9903</v>
       </c>
       <c r="S26" s="2">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="T26" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
         <v>1</v>
       </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
       <c r="AC26" s="2">
         <v>0</v>
       </c>
@@ -7074,31 +7074,31 @@
         <v>0</v>
       </c>
       <c r="AH26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="2">
         <v>1</v>
       </c>
-      <c r="AI26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>2</v>
-      </c>
       <c r="AL26" s="2">
-        <v>11.274744</v>
+        <v>11.96002</v>
       </c>
       <c r="AM26" s="2">
-        <v>9.5123110000000004</v>
+        <v>10.580361</v>
       </c>
       <c r="AN26" s="2">
-        <v>7.2684579999999999</v>
+        <v>10.383023</v>
       </c>
       <c r="AO26" s="2">
-        <v>5.1417549999999999</v>
+        <v>7.4658189999999998</v>
       </c>
       <c r="AP26" s="2">
-        <v>5.6429999999999998</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="2">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="2">
-        <v>0</v>
+        <v>871.26743499999998</v>
       </c>
       <c r="AX26" s="2">
         <v>0</v>
@@ -7137,31 +7137,31 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>44.742708999999998</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>42.228875000000002</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="2">
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>447.10021999999998</v>
+        <v>88.131765999999999</v>
       </c>
       <c r="BG26" s="2">
-        <v>1.074891</v>
+        <v>1.1003210000000001</v>
       </c>
       <c r="BH26" s="2">
-        <v>1.0501480000000001</v>
+        <v>1.063043</v>
       </c>
       <c r="BI26" s="2">
-        <v>1.0327390000000001</v>
+        <v>1.036799</v>
       </c>
       <c r="BJ26" s="2">
-        <v>1.0229630000000001</v>
+        <v>1.0218039999999999</v>
       </c>
       <c r="BK26" s="2">
-        <v>1.0302659999999999</v>
+        <v>0</v>
       </c>
       <c r="BL26" s="2">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="BR26" s="2">
-        <v>0</v>
+        <v>1.4068780000000001</v>
       </c>
       <c r="BS26" s="2">
         <v>0</v>
@@ -7200,75 +7200,75 @@
         <v>0</v>
       </c>
       <c r="BX26" s="2">
-        <v>1.322268</v>
+        <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>1.3013539999999999</v>
+        <v>0</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
       </c>
       <c r="CA26" s="2">
-        <v>1.0607</v>
+        <v>1.3910530000000001</v>
       </c>
     </row>
     <row r="27" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="24">
+        <v>39</v>
+      </c>
+      <c r="C27" s="28">
         <v>9633740000</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="28">
         <v>63468500</v>
       </c>
       <c r="E27" s="2">
-        <v>23033237.254974</v>
+        <v>40888912.017631002</v>
       </c>
       <c r="F27" s="2">
-        <v>978686.18337700004</v>
+        <v>1064193.147845</v>
       </c>
       <c r="G27" s="2">
-        <v>5014582.6268239999</v>
+        <v>5655163.9191939998</v>
       </c>
       <c r="H27" s="2">
-        <v>44905</v>
+        <v>58472</v>
       </c>
       <c r="I27" s="2">
-        <v>22536</v>
+        <v>11175</v>
       </c>
       <c r="J27" s="2">
-        <v>81543</v>
+        <v>98471</v>
       </c>
       <c r="K27" s="2">
-        <v>8.3319000000000004E-2</v>
+        <v>9.2531000000000002E-2</v>
       </c>
       <c r="L27" s="2">
-        <v>0.75365899999999997</v>
+        <v>0.76413399999999998</v>
       </c>
       <c r="M27" s="2">
-        <v>12.002087</v>
+        <v>10.807173000000001</v>
       </c>
       <c r="N27" s="2">
-        <v>1.0944179999999999</v>
+        <v>1.0715220000000001</v>
       </c>
       <c r="O27" s="2">
-        <v>282.467376</v>
+        <v>415.238111</v>
       </c>
       <c r="P27" s="2">
-        <v>61.496175000000001</v>
+        <v>57.429740000000002</v>
       </c>
       <c r="Q27" s="2">
-        <v>69695</v>
+        <v>84792</v>
       </c>
       <c r="R27" s="2">
-        <v>10628</v>
+        <v>11851</v>
       </c>
       <c r="S27" s="2">
-        <v>1199</v>
+        <v>1782</v>
       </c>
       <c r="T27" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -7319,19 +7319,19 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL27" s="2">
-        <v>12.286690999999999</v>
+        <v>11.157444</v>
       </c>
       <c r="AM27" s="2">
-        <v>10.314465</v>
+        <v>8.4676069999999992</v>
       </c>
       <c r="AN27" s="2">
-        <v>9.1956349999999993</v>
+        <v>8.5895890000000001</v>
       </c>
       <c r="AO27" s="2">
-        <v>5.2173449999999999</v>
+        <v>4.5527939999999996</v>
       </c>
       <c r="AP27" s="2">
         <v>0</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="2">
-        <v>74.113049000000004</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
@@ -7382,19 +7382,19 @@
         <v>0</v>
       </c>
       <c r="BF27" s="2">
-        <v>518.25358800000004</v>
+        <v>231.09940900000001</v>
       </c>
       <c r="BG27" s="2">
-        <v>1.1006050000000001</v>
+        <v>1.0745629999999999</v>
       </c>
       <c r="BH27" s="2">
-        <v>1.060559</v>
+        <v>1.0545040000000001</v>
       </c>
       <c r="BI27" s="2">
-        <v>1.0360560000000001</v>
+        <v>1.0399940000000001</v>
       </c>
       <c r="BJ27" s="2">
-        <v>1.0201229999999999</v>
+        <v>1.0227360000000001</v>
       </c>
       <c r="BK27" s="2">
         <v>0</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="2">
-        <v>1.060373</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="2">
         <v>0</v>
@@ -7445,66 +7445,66 @@
         <v>0</v>
       </c>
       <c r="CA27" s="2">
-        <v>1.07578</v>
+        <v>1.2495970000000001</v>
       </c>
     </row>
     <row r="28" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="24">
+        <v>49</v>
+      </c>
+      <c r="C28" s="28">
         <v>11200200000</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="28">
         <v>65430200</v>
       </c>
       <c r="E28" s="2">
-        <v>2349516.2988229999</v>
+        <v>23033237.254974</v>
       </c>
       <c r="F28" s="2">
-        <v>817035.24362700002</v>
+        <v>978686.18337700004</v>
       </c>
       <c r="G28" s="2">
-        <v>3852955.9424840002</v>
+        <v>5014582.6268239999</v>
       </c>
       <c r="H28" s="2">
-        <v>39106</v>
+        <v>44905</v>
       </c>
       <c r="I28" s="2">
-        <v>16907</v>
+        <v>22536</v>
       </c>
       <c r="J28" s="2">
-        <v>69549</v>
+        <v>81543</v>
       </c>
       <c r="K28" s="2">
-        <v>8.5124000000000005E-2</v>
+        <v>8.3319000000000004E-2</v>
       </c>
       <c r="L28" s="2">
-        <v>0.769675</v>
+        <v>0.75365899999999997</v>
       </c>
       <c r="M28" s="2">
-        <v>11.74762</v>
+        <v>12.002087</v>
       </c>
       <c r="N28" s="2">
-        <v>1.0938699999999999</v>
+        <v>1.0944179999999999</v>
       </c>
       <c r="O28" s="2">
-        <v>33.782172000000003</v>
+        <v>282.467376</v>
       </c>
       <c r="P28" s="2">
-        <v>55.399157000000002</v>
+        <v>61.496175000000001</v>
       </c>
       <c r="Q28" s="2">
-        <v>58388</v>
+        <v>69695</v>
       </c>
       <c r="R28" s="2">
-        <v>9903</v>
+        <v>10628</v>
       </c>
       <c r="S28" s="2">
-        <v>1234</v>
+        <v>1199</v>
       </c>
       <c r="T28" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="2">
         <v>0</v>
@@ -7555,19 +7555,19 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL28" s="2">
-        <v>11.96002</v>
+        <v>12.286690999999999</v>
       </c>
       <c r="AM28" s="2">
-        <v>10.580361</v>
+        <v>10.314465</v>
       </c>
       <c r="AN28" s="2">
-        <v>10.383023</v>
+        <v>9.1956349999999993</v>
       </c>
       <c r="AO28" s="2">
-        <v>7.4658189999999998</v>
+        <v>5.2173449999999999</v>
       </c>
       <c r="AP28" s="2">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="2">
-        <v>0</v>
+        <v>74.113049000000004</v>
       </c>
       <c r="AS28" s="2">
         <v>0</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="2">
-        <v>871.26743499999998</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="2">
         <v>0</v>
@@ -7618,19 +7618,19 @@
         <v>0</v>
       </c>
       <c r="BF28" s="2">
-        <v>88.131765999999999</v>
+        <v>518.25358800000004</v>
       </c>
       <c r="BG28" s="2">
-        <v>1.1003210000000001</v>
+        <v>1.1006050000000001</v>
       </c>
       <c r="BH28" s="2">
-        <v>1.063043</v>
+        <v>1.060559</v>
       </c>
       <c r="BI28" s="2">
-        <v>1.036799</v>
+        <v>1.0360560000000001</v>
       </c>
       <c r="BJ28" s="2">
-        <v>1.0218039999999999</v>
+        <v>1.0201229999999999</v>
       </c>
       <c r="BK28" s="2">
         <v>0</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="2">
-        <v>0</v>
+        <v>1.060373</v>
       </c>
       <c r="BN28" s="2">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="BR28" s="2">
-        <v>1.4068780000000001</v>
+        <v>0</v>
       </c>
       <c r="BS28" s="2">
         <v>0</v>
@@ -7681,69 +7681,69 @@
         <v>0</v>
       </c>
       <c r="CA28" s="2">
-        <v>1.3910530000000001</v>
+        <v>1.07578</v>
       </c>
     </row>
     <row r="29" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="24">
+        <v>51</v>
+      </c>
+      <c r="C29" s="28">
         <v>11345800000</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="28">
         <v>70115800</v>
       </c>
       <c r="E29" s="2">
-        <v>40888912.017631002</v>
+        <v>9592578.9922240004</v>
       </c>
       <c r="F29" s="2">
-        <v>1064193.147845</v>
+        <v>1302379.2850959999</v>
       </c>
       <c r="G29" s="2">
-        <v>5655163.9191939998</v>
+        <v>6052516.9001110001</v>
       </c>
       <c r="H29" s="2">
-        <v>58472</v>
+        <v>70124</v>
       </c>
       <c r="I29" s="2">
-        <v>11175</v>
+        <v>16700</v>
       </c>
       <c r="J29" s="2">
-        <v>98471</v>
+        <v>118175</v>
       </c>
       <c r="K29" s="2">
-        <v>9.2531000000000002E-2</v>
+        <v>9.0737999999999999E-2</v>
       </c>
       <c r="L29" s="2">
-        <v>0.76413399999999998</v>
+        <v>0.74348199999999998</v>
       </c>
       <c r="M29" s="2">
-        <v>10.807173000000001</v>
+        <v>11.020768</v>
       </c>
       <c r="N29" s="2">
-        <v>1.0715220000000001</v>
+        <v>1.0713729999999999</v>
       </c>
       <c r="O29" s="2">
-        <v>415.238111</v>
+        <v>81.172658999999996</v>
       </c>
       <c r="P29" s="2">
-        <v>57.429740000000002</v>
+        <v>51.216558999999997</v>
       </c>
       <c r="Q29" s="2">
-        <v>84792</v>
+        <v>102244</v>
       </c>
       <c r="R29" s="2">
-        <v>11851</v>
+        <v>14672</v>
       </c>
       <c r="S29" s="2">
-        <v>1782</v>
+        <v>1225</v>
       </c>
       <c r="T29" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -7782,31 +7782,31 @@
         <v>0</v>
       </c>
       <c r="AH29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="2">
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL29" s="2">
-        <v>11.157444</v>
+        <v>11.274744</v>
       </c>
       <c r="AM29" s="2">
-        <v>8.4676069999999992</v>
+        <v>9.5123110000000004</v>
       </c>
       <c r="AN29" s="2">
-        <v>8.5895890000000001</v>
+        <v>7.2684579999999999</v>
       </c>
       <c r="AO29" s="2">
-        <v>4.5527939999999996</v>
+        <v>5.1417549999999999</v>
       </c>
       <c r="AP29" s="2">
-        <v>0</v>
+        <v>5.6429999999999998</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
@@ -7845,31 +7845,31 @@
         <v>0</v>
       </c>
       <c r="BC29" s="2">
-        <v>0</v>
+        <v>44.742708999999998</v>
       </c>
       <c r="BD29" s="2">
-        <v>0</v>
+        <v>42.228875000000002</v>
       </c>
       <c r="BE29" s="2">
         <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>231.09940900000001</v>
+        <v>447.10021999999998</v>
       </c>
       <c r="BG29" s="2">
-        <v>1.0745629999999999</v>
+        <v>1.074891</v>
       </c>
       <c r="BH29" s="2">
-        <v>1.0545040000000001</v>
+        <v>1.0501480000000001</v>
       </c>
       <c r="BI29" s="2">
-        <v>1.0399940000000001</v>
+        <v>1.0327390000000001</v>
       </c>
       <c r="BJ29" s="2">
-        <v>1.0227360000000001</v>
+        <v>1.0229630000000001</v>
       </c>
       <c r="BK29" s="2">
-        <v>0</v>
+        <v>1.0302659999999999</v>
       </c>
       <c r="BL29" s="2">
         <v>0</v>
@@ -7908,82 +7908,78 @@
         <v>0</v>
       </c>
       <c r="BX29" s="2">
-        <v>0</v>
+        <v>1.322268</v>
       </c>
       <c r="BY29" s="2">
-        <v>0</v>
+        <v>1.3013539999999999</v>
       </c>
       <c r="BZ29" s="2">
         <v>0</v>
       </c>
       <c r="CA29" s="2">
-        <v>1.2495970000000001</v>
+        <v>1.0607</v>
       </c>
     </row>
     <row r="30" spans="2:79" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="29">
         <f>AVERAGE(C26:C29)</f>
         <v>10740860000</v>
       </c>
-      <c r="D30" s="25">
-        <f>AVERAGE(D26:D29)</f>
+      <c r="D30" s="29">
+        <f t="shared" ref="D30:P30" si="3">AVERAGE(D26:D29)</f>
         <v>66369575</v>
       </c>
-      <c r="E30" s="4">
-        <f>AVERAGE(E26:E29)</f>
+      <c r="E30" s="31">
+        <f t="shared" si="3"/>
         <v>18966061.140913002</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" ref="F30" si="3">AVERAGE(F26:F29)</f>
+      <c r="F30" s="31">
+        <f t="shared" si="3"/>
         <v>1040573.46498625</v>
       </c>
-      <c r="G30" s="4">
-        <f t="shared" ref="G30" si="4">AVERAGE(G26:G29)</f>
+      <c r="G30" s="31">
+        <f t="shared" si="3"/>
         <v>5143804.8471532501</v>
       </c>
-      <c r="H30" s="4">
-        <f t="shared" ref="H30" si="5">AVERAGE(H26:H29)</f>
+      <c r="H30" s="31">
+        <f t="shared" si="3"/>
         <v>53151.75</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" ref="I30" si="6">AVERAGE(I26:I29)</f>
+      <c r="I30" s="31">
+        <f t="shared" si="3"/>
         <v>16829.5</v>
       </c>
-      <c r="J30" s="4">
-        <f t="shared" ref="J30" si="7">AVERAGE(J26:J29)</f>
+      <c r="J30" s="31">
+        <f t="shared" si="3"/>
         <v>91934.5</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" ref="K30" si="8">AVERAGE(K26:K29)</f>
+      <c r="K30" s="31">
+        <f t="shared" si="3"/>
         <v>8.7928000000000006E-2</v>
       </c>
-      <c r="L30" s="4">
-        <f t="shared" ref="L30" si="9">AVERAGE(L26:L29)</f>
+      <c r="L30" s="31">
+        <f t="shared" si="3"/>
         <v>0.75773749999999995</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" ref="M30" si="10">AVERAGE(M26:M29)</f>
+      <c r="M30" s="31">
+        <f t="shared" si="3"/>
         <v>11.394411999999999</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" ref="N30" si="11">AVERAGE(N26:N29)</f>
+      <c r="N30" s="31">
+        <f t="shared" si="3"/>
         <v>1.0827957499999998</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" ref="O30" si="12">AVERAGE(O26:O29)</f>
+      <c r="O30" s="31">
+        <f t="shared" si="3"/>
         <v>203.16507949999999</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" ref="P30" si="13">AVERAGE(P26:P29)</f>
-        <v>56.385407750000006</v>
-      </c>
-    </row>
-    <row r="31" spans="2:79" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="P30" s="31">
+        <f t="shared" si="3"/>
+        <v>56.385407749999999</v>
+      </c>
     </row>
     <row r="32" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -7996,303 +7992,303 @@
         <v>49951500</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ref="E32:AJ32" si="14">E7+E20</f>
+        <f t="shared" ref="E32:AJ32" si="4">E7+E20</f>
         <v>7752742.5366830006</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>4564570.2116430001</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>18142548.810765002</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>316300</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>26086</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>526901</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0.21717900000000001</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1.424023</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>18.576025000000001</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2.1280609999999998</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>39.485861</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>79.861352000000011</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>507693</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>17648</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1520</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" ref="AK32:BP32" si="15">AK7+AK20</f>
+        <f t="shared" ref="AK32:BP32" si="5">AK7+AK20</f>
         <v>4</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>18.928848000000002</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>14.585129000000002</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>13.262777</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>4.8304200000000002</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>4.4217930000000001</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>913.63487399999997</v>
       </c>
       <c r="BB32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>178.03845000000001</v>
       </c>
       <c r="BG32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.1330489999999998</v>
       </c>
       <c r="BH32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.0812219999999999</v>
       </c>
       <c r="BI32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>2.061061</v>
       </c>
       <c r="BJ32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>1.0199910000000001</v>
       </c>
       <c r="BK32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>1.0074129999999999</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BO32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BP32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" ref="BQ32:CA32" si="16">BQ7+BQ20</f>
+        <f t="shared" ref="BQ32:CA32" si="6">BQ7+BQ20</f>
         <v>0</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BV32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>1.5995729999999999</v>
       </c>
       <c r="BW32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BX32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BY32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BZ32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CA32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>2.633502</v>
       </c>
     </row>
@@ -8307,303 +8303,303 @@
         <v>56816400</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33:AJ33" si="17">E8+E21</f>
+        <f t="shared" ref="E33:AJ33" si="7">E8+E21</f>
         <v>11696341.962301001</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>4960992.457897</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>20253856.748321</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>349526</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>28650</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>579414</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0.21448600000000001</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>1.4679799999999998</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>18.903486999999998</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>2.1443079999999997</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>120.76756399999999</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>88.843793000000005</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>552416</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>25212</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>1747</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <f t="shared" ref="AK33:BP33" si="18">AK8+AK21</f>
+        <f t="shared" ref="AK33:BP33" si="8">AK8+AK21</f>
         <v>1</v>
       </c>
       <c r="AL33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>19.015898999999997</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>17.951990000000002</v>
       </c>
       <c r="AN33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>16.085916000000001</v>
       </c>
       <c r="AO33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>4.3670689999999999</v>
       </c>
       <c r="AP33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>177.03811300000001</v>
       </c>
       <c r="AV33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>189.685757</v>
       </c>
       <c r="AW33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AZ33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BA33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>658.87515800000006</v>
       </c>
       <c r="BG33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>2.1500560000000002</v>
       </c>
       <c r="BH33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>2.1073209999999998</v>
       </c>
       <c r="BI33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>2.0592110000000003</v>
       </c>
       <c r="BJ33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>1.021258</v>
       </c>
       <c r="BK33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BL33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BM33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BO33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BP33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>1.103947</v>
       </c>
       <c r="BQ33" s="2">
-        <f t="shared" ref="BQ33:CA33" si="19">BQ8+BQ21</f>
+        <f t="shared" ref="BQ33:CA33" si="9">BQ8+BQ21</f>
         <v>1.1347039999999999</v>
       </c>
       <c r="BR33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BS33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BT33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BU33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BV33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BW33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BX33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BY33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BZ33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CA33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1.15059</v>
       </c>
     </row>
@@ -8618,303 +8614,303 @@
         <v>50553400</v>
       </c>
       <c r="E34" s="2">
-        <f>E9+E22</f>
+        <f t="shared" ref="E34:AJ34" si="10">E9+E22</f>
         <v>22317032.835203998</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:BQ34" si="20">F9+F22</f>
+        <f t="shared" si="10"/>
         <v>4008003.3526050001</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>16712909.679710001</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>283968</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>15592</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>468086</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0.21690799999999999</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1.4590480000000001</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>18.653485</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>2.131338</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>103.42770899999999</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>86.091773000000003</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>444465</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>21885</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1706</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AK34:BP34" si="11">AK9+AK22</f>
         <v>2</v>
       </c>
       <c r="AL34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>18.981025000000002</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>15.748995999999998</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>16.592105</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>9.1984619999999993</v>
       </c>
       <c r="AP34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>644.87178900000004</v>
       </c>
       <c r="AW34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AZ34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BB34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BC34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>1866.5969930000001</v>
       </c>
       <c r="BG34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>2.1254169999999997</v>
       </c>
       <c r="BH34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>2.0818859999999999</v>
       </c>
       <c r="BI34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>2.0541749999999999</v>
       </c>
       <c r="BJ34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>2.0653069999999998</v>
       </c>
       <c r="BK34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BL34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BM34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BN34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BO34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BP34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BQ34:CA34" si="12">BQ9+BQ22</f>
         <v>1.0074620000000001</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" ref="BR34:CA34" si="21">BR9+BR22</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BX34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BY34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BZ34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CA34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>648.81223299999999</v>
       </c>
     </row>
@@ -8929,303 +8925,303 @@
         <v>54438600</v>
       </c>
       <c r="E35" s="2">
-        <f>E10+E23</f>
+        <f t="shared" ref="E35:AJ35" si="13">E10+E23</f>
         <v>10672253.39198</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" ref="F35:BQ35" si="22">F10+F23</f>
+        <f t="shared" si="13"/>
         <v>7065375.6968759997</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>29018513.682099</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>458623</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>18648</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>762857</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0.196877</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>1.335539</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>20.812915</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>2.1000680000000003</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>29.351409</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>82.436386999999996</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>701657</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>59745</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>1414</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AK35:BP35" si="14">AK10+AK23</f>
         <v>0</v>
       </c>
       <c r="AL35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>21.064922000000003</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>14.982071000000001</v>
       </c>
       <c r="AN35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>18.217973999999998</v>
       </c>
       <c r="AO35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>14.437014000000001</v>
       </c>
       <c r="AP35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>515.96123</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AS35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AT35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AU35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AV35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AY35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>311.557658</v>
       </c>
       <c r="AZ35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BB35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BC35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BD35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BE35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BF35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BG35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.1016249999999999</v>
       </c>
       <c r="BH35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.0764519999999997</v>
       </c>
       <c r="BI35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.1091860000000002</v>
       </c>
       <c r="BJ35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.158814</v>
       </c>
       <c r="BK35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.113807</v>
       </c>
       <c r="BL35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BN35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BO35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BP35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BQ35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="BQ35:CA35" si="15">BQ10+BQ23</f>
         <v>0</v>
       </c>
       <c r="BR35" s="2">
-        <f t="shared" ref="BR35:CA35" si="23">BR10+BR23</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BS35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BT35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>1.3111740000000001</v>
       </c>
       <c r="BU35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BV35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BW35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BX35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BY35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BZ35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CA35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9246,299 +9242,299 @@
         <v>13922039.111396</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" ref="F36:BQ36" si="24">AVERAGE(F32:F34)</f>
+        <f t="shared" ref="F36:BQ36" si="16">AVERAGE(F32:F34)</f>
         <v>4511188.6740483334</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>18369771.746265333</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>316598</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>23442.666666666668</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>524800.33333333337</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.21619100000000002</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.4503503333333334</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>18.710999000000001</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.1345689999999995</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>87.893711333333329</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>84.932305999999997</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>501524.66666666669</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>21581.666666666668</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1657.6666666666667</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>31.666666666666668</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AA36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AB36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AG36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="AL36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>18.975257333333335</v>
       </c>
       <c r="AM36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>16.095371666666669</v>
       </c>
       <c r="AN36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>15.313599333333334</v>
       </c>
       <c r="AO36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>6.1319836666666667</v>
       </c>
       <c r="AP36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.4739310000000001</v>
       </c>
       <c r="AQ36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AR36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AS36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AU36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>59.012704333333339</v>
       </c>
       <c r="AV36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>278.18584866666669</v>
       </c>
       <c r="AW36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AY36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AZ36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BA36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>304.54495800000001</v>
       </c>
       <c r="BB36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BC36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BD36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BF36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>901.17020033333336</v>
       </c>
       <c r="BG36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.136174</v>
       </c>
       <c r="BH36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.0901429999999999</v>
       </c>
       <c r="BI36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.0581489999999998</v>
       </c>
       <c r="BJ36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.3688519999999997</v>
       </c>
       <c r="BK36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.33580433333333332</v>
       </c>
       <c r="BL36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BM36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BN36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BO36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BP36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.36798233333333336</v>
       </c>
       <c r="BQ36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.71405533333333338</v>
       </c>
       <c r="BR36" s="6">
-        <f t="shared" ref="BR36:CA36" si="25">AVERAGE(BR32:BR34)</f>
+        <f t="shared" ref="BR36:CA36" si="17">AVERAGE(BR32:BR34)</f>
         <v>0</v>
       </c>
       <c r="BS36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BT36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BU36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BV36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.53319099999999997</v>
       </c>
       <c r="BW36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BX36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BY36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BZ36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CA36" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>217.53210833333333</v>
       </c>
     </row>
@@ -9551,299 +9547,299 @@
         <v>3180810.9299571817</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="F37:P37" si="26">STDEV(F32:F35)/SQRT(4)</f>
+        <f t="shared" ref="F37:P37" si="18">STDEV(F32:F35)/SQRT(4)</f>
         <v>667786.89283598773</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>2759730.9210163536</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>37944.459802837708</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>3068.3616692517417</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>63709.50570166119</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>4.8662974032283191E-3</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>3.0229421001457049E-2</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.53010341949378137</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.3111975453839622E-3</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>22.795679631635007</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.9797069961296194</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" ref="Q37:BQ37" si="27">STDEV(Q32:Q34)/SQRT(3)</f>
+        <f t="shared" ref="Q37:BQ37" si="19">STDEV(Q32:Q34)/SQRT(3)</f>
         <v>31315.016910599155</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2188.7996964343552</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>69.843475794888036</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.6034165586355469</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="AA37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AE37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="AG37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AH37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.88191710368819698</v>
       </c>
       <c r="AL37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.5294390908744607E-2</v>
       </c>
       <c r="AM37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.98723862788661432</v>
       </c>
       <c r="AN37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1.0357704070086085</v>
       </c>
       <c r="AO37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1.5390625462601502</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1.4739310000000001</v>
       </c>
       <c r="AQ37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AR37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AS37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AT37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>59.012704333333339</v>
       </c>
       <c r="AV37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>191.34532981912702</v>
       </c>
       <c r="AW37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AX37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BA37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>304.54495799999995</v>
       </c>
       <c r="BB37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BC37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BD37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BF37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>502.27404669133074</v>
       </c>
       <c r="BG37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>7.2822683965919803E-3</v>
       </c>
       <c r="BH37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>8.5911385935353544E-3</v>
       </c>
       <c r="BI37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.0575172741276486E-3</v>
       </c>
       <c r="BJ37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.34822769207852122</v>
       </c>
       <c r="BK37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.33580433333333332</v>
       </c>
       <c r="BL37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BM37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BN37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BO37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BP37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.36798233333333336</v>
       </c>
       <c r="BQ37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.35891219721882472</v>
       </c>
       <c r="BR37" s="7">
-        <f t="shared" ref="BR37:CA37" si="28">STDEV(BR32:BR34)/SQRT(3)</f>
+        <f t="shared" ref="BR37:CA37" si="20">STDEV(BR32:BR34)/SQRT(3)</f>
         <v>0</v>
       </c>
       <c r="BS37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BT37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BU37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BV37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0.53319099999999997</v>
       </c>
       <c r="BW37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BX37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BY37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BZ37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CA37" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>215.64048723618021</v>
       </c>
     </row>
@@ -9862,303 +9858,303 @@
         <v>66463800</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39:AJ39" si="29">E13+E26</f>
+        <f t="shared" ref="E39:AJ39" si="21">E13+E29</f>
         <v>17948691.207159001</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>6813301.2964890003</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>28723231.242143001</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>507275</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>27139</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>836596</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0.22110099999999999</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.426418</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>18.691648999999998</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>2.1152889999999998</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>92.803877999999997</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>82.772866999999991</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>776446</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>58128</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1982</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AH39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AI39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AJ39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" ref="AK39:BP39" si="30">AK13+AK26</f>
+        <f t="shared" ref="AK39:BP39" si="22">AK13+AK29</f>
         <v>3</v>
       </c>
       <c r="AL39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>19.010725999999998</v>
       </c>
       <c r="AM39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>16.161405000000002</v>
       </c>
       <c r="AN39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>13.589583999999999</v>
       </c>
       <c r="AO39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>6.9009539999999996</v>
       </c>
       <c r="AP39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>485.067926</v>
       </c>
       <c r="AQ39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AT39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AU39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AV39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AW39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AX39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AY39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AZ39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BA39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BB39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>44.742708999999998</v>
       </c>
       <c r="BD39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>42.228875000000002</v>
       </c>
       <c r="BE39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>584.89205500000003</v>
       </c>
       <c r="BG39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>2.1199380000000003</v>
       </c>
       <c r="BH39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>2.0769039999999999</v>
       </c>
       <c r="BI39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>2.0538629999999998</v>
       </c>
       <c r="BJ39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>2.037029</v>
       </c>
       <c r="BK39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>2.1621899999999998</v>
       </c>
       <c r="BL39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BM39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BN39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BO39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BP39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BQ39" s="2">
-        <f t="shared" ref="BQ39:CA39" si="31">BQ13+BQ26</f>
+        <f t="shared" ref="BQ39:CA39" si="23">BQ13+BQ29</f>
         <v>0</v>
       </c>
       <c r="BR39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BS39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BT39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BU39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BV39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BW39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BX39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>1.322268</v>
       </c>
       <c r="BY39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>1.3013539999999999</v>
       </c>
       <c r="BZ39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="CA39" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>2.3400099999999999</v>
       </c>
     </row>
@@ -10173,303 +10169,303 @@
         <v>63468500</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ref="E40:AJ40" si="32">E14+E27</f>
+        <f t="shared" ref="E40:AJ40" si="24">E14+E28</f>
         <v>40824958.145449996</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>5339745.3309630007</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>22893274.281241</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>376779</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>30384</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>627977</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0.208617</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>1.4307650000000001</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>19.983031</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>2.1371699999999998</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>315.02706499999999</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>94.215024</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>585492</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>40823</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>1637</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AI40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <f t="shared" ref="AK40:BP40" si="33">AK14+AK27</f>
+        <f t="shared" ref="AK40:BP40" si="25">AK14+AK28</f>
         <v>4</v>
       </c>
       <c r="AL40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>20.388784000000001</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>16.220181</v>
       </c>
       <c r="AN40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>14.97044</v>
       </c>
       <c r="AO40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>9.6275389999999987</v>
       </c>
       <c r="AP40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>74.113049000000004</v>
       </c>
       <c r="AS40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AT40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AV40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AW40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AX40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AY40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AZ40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BA40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BB40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BC40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>773.83718999999996</v>
       </c>
       <c r="BD40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BE40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BF40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>907.24002600000006</v>
       </c>
       <c r="BG40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>2.1443149999999997</v>
       </c>
       <c r="BH40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>2.0872790000000001</v>
       </c>
       <c r="BI40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>2.0559159999999999</v>
       </c>
       <c r="BJ40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>2.0240489999999998</v>
       </c>
       <c r="BK40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BM40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>1.060373</v>
       </c>
       <c r="BN40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BO40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BP40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BQ40" s="2">
-        <f t="shared" ref="BQ40:CA40" si="34">BQ14+BQ27</f>
+        <f t="shared" ref="BQ40:CA40" si="26">BQ14+BQ28</f>
         <v>0</v>
       </c>
       <c r="BR40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BS40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BT40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BU40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BV40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BW40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BX40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>1.086379</v>
       </c>
       <c r="BY40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BZ40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CA40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>2.3908620000000003</v>
       </c>
     </row>
@@ -10484,303 +10480,303 @@
         <v>65430200</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:AJ41" si="35">E15+E28</f>
+        <f t="shared" ref="E41:AJ41" si="27">E15+E26</f>
         <v>20867398.820664</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>5976591.672123</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>26083599.560773</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>439433</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>26715</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>728464</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0.21283199999999999</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>1.4754420000000001</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>19.578001999999998</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>2.1385670000000001</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>61.885770000000008</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>89.137414000000007</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>662120</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>63455</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>2848</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AI41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <f t="shared" ref="AK41:BP41" si="36">AK15+AK28</f>
+        <f t="shared" ref="AK41:BP41" si="28">AK15+AK26</f>
         <v>2</v>
       </c>
       <c r="AL41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>19.878906000000001</v>
       </c>
       <c r="AM41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>17.397807999999998</v>
       </c>
       <c r="AN41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>18.279063000000001</v>
       </c>
       <c r="AO41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>11.888411999999999</v>
       </c>
       <c r="AP41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>8.0878580000000007</v>
       </c>
       <c r="AQ41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AR41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AS41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AV41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AW41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>871.26743499999998</v>
       </c>
       <c r="AX41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AY41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AZ41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BA41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BB41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BC41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BD41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BE41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BF41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>853.06032499999992</v>
       </c>
       <c r="BG41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>2.1462810000000001</v>
       </c>
       <c r="BH41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>2.0939969999999999</v>
       </c>
       <c r="BI41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>2.0655239999999999</v>
       </c>
       <c r="BJ41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>2.0335809999999999</v>
       </c>
       <c r="BK41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>1.0215460000000001</v>
       </c>
       <c r="BL41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BM41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BN41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BO41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BP41" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BQ41" s="2">
-        <f t="shared" ref="BQ41:CA41" si="37">BQ15+BQ28</f>
+        <f t="shared" ref="BQ41:CA41" si="29">BQ15+BQ26</f>
         <v>0</v>
       </c>
       <c r="BR41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>1.4068780000000001</v>
       </c>
       <c r="BS41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BT41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BU41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BV41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BW41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BX41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BY41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BZ41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="CA41" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>2.481398</v>
       </c>
     </row>
@@ -10795,303 +10791,303 @@
         <v>70115800</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:AJ42" si="38">E16+E29</f>
+        <f t="shared" ref="E42:AJ42" si="30">E16+E27</f>
         <v>67509618.074627995</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>6104043.832858</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>27296410.415978</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>464659</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>19737</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>769031</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0.22558300000000001</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>1.4610719999999999</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>18.323056000000001</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>2.1143200000000002</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>454.93732699999998</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>89.703133000000008</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>705075</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>61356</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>2538</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>42</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AD42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AE42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AF42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AG42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AH42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AI42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <f t="shared" ref="AK42:BP42" si="39">AK16+AK29</f>
+        <f t="shared" ref="AK42:BP42" si="31">AK16+AK27</f>
         <v>18</v>
       </c>
       <c r="AL42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>18.824498999999999</v>
       </c>
       <c r="AM42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>14.057586999999998</v>
       </c>
       <c r="AN42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>14.879555</v>
       </c>
       <c r="AO42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>6.686475999999999</v>
       </c>
       <c r="AP42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AR42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AS42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AT42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AU42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AV42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AW42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AX42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AY42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AZ42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BA42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>40.674225999999997</v>
       </c>
       <c r="BB42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BC42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>41.840164000000001</v>
       </c>
       <c r="BD42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BE42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>546.60932500000001</v>
       </c>
       <c r="BG42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>2.1186720000000001</v>
       </c>
       <c r="BH42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>2.0811770000000003</v>
       </c>
       <c r="BI42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>2.0611740000000003</v>
       </c>
       <c r="BJ42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>2.032308</v>
       </c>
       <c r="BK42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BM42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BN42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BO42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BP42" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BQ42" s="2">
-        <f t="shared" ref="BQ42:CA42" si="40">BQ16+BQ29</f>
+        <f t="shared" ref="BQ42:CA42" si="32">BQ16+BQ27</f>
         <v>0</v>
       </c>
       <c r="BR42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BS42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BT42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BU42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BV42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>1.2927120000000001</v>
       </c>
       <c r="BW42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BX42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>1.301167</v>
       </c>
       <c r="BY42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BZ42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CA42" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>2.4060380000000001</v>
       </c>
     </row>
@@ -11112,299 +11108,299 @@
         <v>36787666.561975248</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" ref="F43:BQ43" si="41">AVERAGE(F39:F42)</f>
+        <f t="shared" ref="F43:BQ43" si="33">AVERAGE(F39:F42)</f>
         <v>6058420.5331082502</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>26249128.875033751</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>447036.5</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>25993.75</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>740517</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.21703324999999998</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>1.44842425</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>19.1439345</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>2.1263364999999999</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>231.16351</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>88.957109500000001</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>682283.25</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>55940.5</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>2251.25</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>32.25</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>1.25</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.25</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.25</v>
       </c>
       <c r="AC43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.25</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.75</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.25</v>
       </c>
       <c r="AJ43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>6.75</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>19.525728749999999</v>
       </c>
       <c r="AM43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>15.959245249999999</v>
       </c>
       <c r="AN43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>15.429660500000001</v>
       </c>
       <c r="AO43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>8.7758452499999997</v>
       </c>
       <c r="AP43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>123.288946</v>
       </c>
       <c r="AQ43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AR43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>18.528262250000001</v>
       </c>
       <c r="AS43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AT43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AU43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AV43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AW43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>217.81685874999999</v>
       </c>
       <c r="AX43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AY43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AZ43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BA43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>10.168556499999999</v>
       </c>
       <c r="BB43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BC43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>215.10501574999998</v>
       </c>
       <c r="BD43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>10.557218750000001</v>
       </c>
       <c r="BE43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BF43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>722.95043275</v>
       </c>
       <c r="BG43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>2.1323015000000001</v>
       </c>
       <c r="BH43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>2.0848392499999999</v>
       </c>
       <c r="BI43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>2.0591192500000002</v>
       </c>
       <c r="BJ43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>2.0317417500000001</v>
       </c>
       <c r="BK43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.79593399999999992</v>
       </c>
       <c r="BL43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BM43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0.26509325</v>
       </c>
       <c r="BN43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BO43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BP43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BQ43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BR43" s="8">
-        <f t="shared" ref="BR43:CA43" si="42">AVERAGE(BR39:BR42)</f>
+        <f t="shared" ref="BR43:CA43" si="34">AVERAGE(BR39:BR42)</f>
         <v>0.35171950000000002</v>
       </c>
       <c r="BS43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BT43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BU43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BV43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0.32317800000000002</v>
       </c>
       <c r="BW43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BX43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0.92745350000000004</v>
       </c>
       <c r="BY43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0.32533849999999997</v>
       </c>
       <c r="BZ43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CA43" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.4045770000000002</v>
       </c>
     </row>
@@ -11417,299 +11413,299 @@
         <v>9901073.0019850433</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" ref="F44:BQ44" si="43">STDEV(F39:F43)/2</f>
+        <f t="shared" ref="F44:BQ44" si="35">STDEV(F39:F43)/2</f>
         <v>261619.53064887691</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1075498.1740308099</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>23628.847447294167</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1940.570385704935</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>37794.467887178937</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>3.3366204903876929E-3</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1.0265380365426083E-2</v>
       </c>
       <c r="M44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.33268803105734418</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>5.7738277002782066E-3</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>80.973050323344665</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>2.0383752868919451</v>
       </c>
       <c r="Q44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>34605.98763468361</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>4465.977727497082</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>235.6022535439761</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>4.2920711783473493</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.81967981553775004</v>
       </c>
       <c r="V44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.21650635094610965</v>
       </c>
       <c r="X44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.21650635094610965</v>
       </c>
       <c r="AC44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.21650635094610965</v>
       </c>
       <c r="AG44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.21650635094610965</v>
       </c>
       <c r="AI44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.21650635094610965</v>
       </c>
       <c r="AJ44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>3.2667835863429948</v>
       </c>
       <c r="AL44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.31884062724019691</v>
       </c>
       <c r="AM44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.6018057678577009</v>
       </c>
       <c r="AN44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.86669183038180486</v>
       </c>
       <c r="AO44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>1.0692910934109163</v>
       </c>
       <c r="AP44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>104.44964380558162</v>
       </c>
       <c r="AQ44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AR44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>16.045945796480222</v>
       </c>
       <c r="AS44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AT44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AU44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AV44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AW44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>188.6349330500268</v>
       </c>
       <c r="AX44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AZ44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BA44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>8.8062282488173782</v>
       </c>
       <c r="BB44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BC44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>161.53479399886086</v>
       </c>
       <c r="BD44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>9.142819630809397</v>
       </c>
       <c r="BE44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BF44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>79.469939360355056</v>
       </c>
       <c r="BG44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>6.5113842854264961E-3</v>
       </c>
       <c r="BH44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>3.2229357031866015E-3</v>
       </c>
       <c r="BI44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>2.2794159716636214E-3</v>
       </c>
       <c r="BJ44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>2.3827097854911285E-3</v>
       </c>
       <c r="BK44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.44613465573691979</v>
       </c>
       <c r="BL44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BM44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0.22957748887177912</v>
       </c>
       <c r="BN44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BO44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BP44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BQ44" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BR44" s="7">
-        <f t="shared" ref="BR44:CA44" si="44">STDEV(BR39:BR43)/2</f>
+        <f t="shared" ref="BR44:CA44" si="36">STDEV(BR39:BR43)/2</f>
         <v>0.30459802200636088</v>
       </c>
       <c r="BS44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BT44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BU44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BV44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0.27988035794424732</v>
       </c>
       <c r="BW44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BX44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0.27168083051452585</v>
       </c>
       <c r="BY44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0.28175140582912356</v>
       </c>
       <c r="BZ44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CA44" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>2.5323654056040177E-2</v>
       </c>
     </row>
@@ -11955,7 +11951,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -11975,367 +11971,367 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="19">
         <v>21581.666666666668</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="20">
         <v>2188.7996964343552</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="21">
         <v>55940.5</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="22">
         <v>4465.977727497082</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="19">
         <v>1657.6666666666667</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="20">
         <v>69.843475794888036</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="21">
         <v>2251.25</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="22">
         <v>235.6022535439761</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="19">
         <v>31.666666666666668</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="20">
         <v>2.6034165586355469</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="21">
         <v>32.25</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="22">
         <v>4.2920711783473493</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="19">
         <v>1</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="20">
         <v>1</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="21">
         <v>1.25</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="22">
         <v>0.81967981553775004</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="9">
-        <v>0</v>
-      </c>
-      <c r="D68" s="10">
-        <v>0</v>
-      </c>
-      <c r="E68" s="12">
-        <v>0</v>
-      </c>
-      <c r="F68" s="18">
+      <c r="C68" s="19">
+        <v>0</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="21">
+        <v>0</v>
+      </c>
+      <c r="F68" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="9">
-        <v>0</v>
-      </c>
-      <c r="D69" s="10">
-        <v>0</v>
-      </c>
-      <c r="E69" s="12">
+      <c r="C69" s="19">
+        <v>0</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0</v>
+      </c>
+      <c r="E69" s="21">
         <v>0.25</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="22">
         <v>0.21650635094610965</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="9">
-        <v>0</v>
-      </c>
-      <c r="D70" s="10">
-        <v>0</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0</v>
-      </c>
-      <c r="F70" s="18">
+      <c r="C70" s="19">
+        <v>0</v>
+      </c>
+      <c r="D70" s="20">
+        <v>0</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="9">
-        <v>0</v>
-      </c>
-      <c r="D71" s="10">
-        <v>0</v>
-      </c>
-      <c r="E71" s="12">
-        <v>0</v>
-      </c>
-      <c r="F71" s="18">
+      <c r="C71" s="19">
+        <v>0</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0</v>
+      </c>
+      <c r="E71" s="21">
+        <v>0</v>
+      </c>
+      <c r="F71" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="19">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="20">
         <v>0.33333333333333337</v>
       </c>
-      <c r="E72" s="12">
-        <v>0</v>
-      </c>
-      <c r="F72" s="18">
+      <c r="E72" s="21">
+        <v>0</v>
+      </c>
+      <c r="F72" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="20">
         <v>0.33333333333333337</v>
       </c>
-      <c r="E73" s="12">
-        <v>0</v>
-      </c>
-      <c r="F73" s="18">
+      <c r="E73" s="21">
+        <v>0</v>
+      </c>
+      <c r="F73" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="9">
-        <v>0</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0</v>
-      </c>
-      <c r="E74" s="12">
+      <c r="C74" s="19">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21">
         <v>0.25</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="22">
         <v>0.21650635094610965</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="9">
-        <v>0</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0</v>
-      </c>
-      <c r="E75" s="12">
-        <v>0</v>
-      </c>
-      <c r="F75" s="18">
+      <c r="C75" s="19">
+        <v>0</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21">
+        <v>0</v>
+      </c>
+      <c r="F75" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="9">
-        <v>0</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0</v>
-      </c>
-      <c r="E76" s="12">
-        <v>0</v>
-      </c>
-      <c r="F76" s="18">
+      <c r="C76" s="19">
+        <v>0</v>
+      </c>
+      <c r="D76" s="20">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="9">
-        <v>0</v>
-      </c>
-      <c r="D77" s="10">
-        <v>0</v>
-      </c>
-      <c r="E77" s="12">
-        <v>0</v>
-      </c>
-      <c r="F77" s="18">
+      <c r="C77" s="19">
+        <v>0</v>
+      </c>
+      <c r="D77" s="20">
+        <v>0</v>
+      </c>
+      <c r="E77" s="21">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="19">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="20">
         <v>0.33333333333333337</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="21">
         <v>0.25</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="22">
         <v>0.21650635094610965</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="9">
-        <v>0</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0</v>
-      </c>
-      <c r="E79" s="12">
-        <v>0</v>
-      </c>
-      <c r="F79" s="18">
+      <c r="C79" s="19">
+        <v>0</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0</v>
+      </c>
+      <c r="E79" s="21">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="1" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="9">
-        <v>0</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0</v>
-      </c>
-      <c r="E80" s="12">
+      <c r="C80" s="19">
+        <v>0</v>
+      </c>
+      <c r="D80" s="20">
+        <v>0</v>
+      </c>
+      <c r="E80" s="21">
         <v>0.75</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="22">
         <v>0.21650635094610965</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="9">
-        <v>0</v>
-      </c>
-      <c r="D81" s="10">
-        <v>0</v>
-      </c>
-      <c r="E81" s="12">
+      <c r="C81" s="19">
+        <v>0</v>
+      </c>
+      <c r="D81" s="20">
+        <v>0</v>
+      </c>
+      <c r="E81" s="21">
         <v>0.25</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="22">
         <v>0.21650635094610965</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="9">
-        <v>0</v>
-      </c>
-      <c r="D82" s="10">
-        <v>0</v>
-      </c>
-      <c r="E82" s="12">
-        <v>0</v>
-      </c>
-      <c r="F82" s="18">
+      <c r="C82" s="19">
+        <v>0</v>
+      </c>
+      <c r="D82" s="20">
+        <v>0</v>
+      </c>
+      <c r="E82" s="21">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
-      <c r="B83" s="19" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="24">
         <v>2.3333333333333335</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="25">
         <v>0.88191710368819698</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="26">
         <v>6.75</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F83" s="27">
         <v>3.2667835863429948</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="13" t="s">
@@ -12355,367 +12351,367 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="19">
         <v>16.095371666666669</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="20">
         <v>0.98723862788661432</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="21">
         <v>15.959245249999999</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="22">
         <v>0.6018057678577009</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="19">
         <v>15.313599333333334</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="20">
         <v>1.0357704070086085</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="21">
         <v>15.429660500000001</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="22">
         <v>0.86669183038180486</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="19">
         <v>6.1319836666666667</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="20">
         <v>1.5390625462601502</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="21">
         <v>8.7758452499999997</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="22">
         <v>1.0692910934109163</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="1" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="19">
         <v>1.4739310000000001</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="20">
         <v>1.4739310000000001</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="21">
         <v>123.288946</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="22">
         <v>104.44964380558162</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="9">
-        <v>0</v>
-      </c>
-      <c r="D89" s="10">
-        <v>0</v>
-      </c>
-      <c r="E89" s="12">
-        <v>0</v>
-      </c>
-      <c r="F89" s="18">
+      <c r="C89" s="19">
+        <v>0</v>
+      </c>
+      <c r="D89" s="20">
+        <v>0</v>
+      </c>
+      <c r="E89" s="21">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="9">
-        <v>0</v>
-      </c>
-      <c r="D90" s="10">
-        <v>0</v>
-      </c>
-      <c r="E90" s="12">
+      <c r="C90" s="19">
+        <v>0</v>
+      </c>
+      <c r="D90" s="20">
+        <v>0</v>
+      </c>
+      <c r="E90" s="21">
         <v>18.528262250000001</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="22">
         <v>16.045945796480222</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="9">
-        <v>0</v>
-      </c>
-      <c r="D91" s="10">
-        <v>0</v>
-      </c>
-      <c r="E91" s="12">
-        <v>0</v>
-      </c>
-      <c r="F91" s="18">
+      <c r="C91" s="19">
+        <v>0</v>
+      </c>
+      <c r="D91" s="20">
+        <v>0</v>
+      </c>
+      <c r="E91" s="21">
+        <v>0</v>
+      </c>
+      <c r="F91" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="9">
-        <v>0</v>
-      </c>
-      <c r="D92" s="10">
-        <v>0</v>
-      </c>
-      <c r="E92" s="12">
-        <v>0</v>
-      </c>
-      <c r="F92" s="18">
+      <c r="C92" s="19">
+        <v>0</v>
+      </c>
+      <c r="D92" s="20">
+        <v>0</v>
+      </c>
+      <c r="E92" s="21">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="19">
         <v>59.012704333333339</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="20">
         <v>59.012704333333339</v>
       </c>
-      <c r="E93" s="12">
-        <v>0</v>
-      </c>
-      <c r="F93" s="18">
+      <c r="E93" s="21">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="36"/>
+      <c r="B94" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="19">
         <v>278.18584866666669</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="20">
         <v>191.34532981912702</v>
       </c>
-      <c r="E94" s="12">
-        <v>0</v>
-      </c>
-      <c r="F94" s="18">
+      <c r="E94" s="21">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="9">
-        <v>0</v>
-      </c>
-      <c r="D95" s="10">
-        <v>0</v>
-      </c>
-      <c r="E95" s="12">
+      <c r="C95" s="19">
+        <v>0</v>
+      </c>
+      <c r="D95" s="20">
+        <v>0</v>
+      </c>
+      <c r="E95" s="21">
         <v>217.81685874999999</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="22">
         <v>188.6349330500268</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="1" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="10">
-        <v>0</v>
-      </c>
-      <c r="E96" s="12">
-        <v>0</v>
-      </c>
-      <c r="F96" s="18">
+      <c r="C96" s="19">
+        <v>0</v>
+      </c>
+      <c r="D96" s="20">
+        <v>0</v>
+      </c>
+      <c r="E96" s="21">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="1" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="9">
-        <v>0</v>
-      </c>
-      <c r="D97" s="10">
-        <v>0</v>
-      </c>
-      <c r="E97" s="12">
-        <v>0</v>
-      </c>
-      <c r="F97" s="18">
+      <c r="C97" s="19">
+        <v>0</v>
+      </c>
+      <c r="D97" s="20">
+        <v>0</v>
+      </c>
+      <c r="E97" s="21">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="1" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="9">
-        <v>0</v>
-      </c>
-      <c r="D98" s="10">
-        <v>0</v>
-      </c>
-      <c r="E98" s="12">
-        <v>0</v>
-      </c>
-      <c r="F98" s="18">
+      <c r="C98" s="19">
+        <v>0</v>
+      </c>
+      <c r="D98" s="20">
+        <v>0</v>
+      </c>
+      <c r="E98" s="21">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="1" t="s">
+      <c r="A99" s="36"/>
+      <c r="B99" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="19">
         <v>304.54495800000001</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="20">
         <v>304.54495799999995</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="21">
         <v>10.168556499999999</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="22">
         <v>8.8062282488173782</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="1" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C100" s="9">
-        <v>0</v>
-      </c>
-      <c r="D100" s="10">
-        <v>0</v>
-      </c>
-      <c r="E100" s="12">
-        <v>0</v>
-      </c>
-      <c r="F100" s="18">
+      <c r="C100" s="19">
+        <v>0</v>
+      </c>
+      <c r="D100" s="20">
+        <v>0</v>
+      </c>
+      <c r="E100" s="21">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
-      <c r="B101" s="1" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="9">
-        <v>0</v>
-      </c>
-      <c r="D101" s="10">
-        <v>0</v>
-      </c>
-      <c r="E101" s="12">
+      <c r="C101" s="19">
+        <v>0</v>
+      </c>
+      <c r="D101" s="20">
+        <v>0</v>
+      </c>
+      <c r="E101" s="21">
         <v>215.10501574999998</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="22">
         <v>161.53479399886086</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
-      <c r="B102" s="1" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="9">
-        <v>0</v>
-      </c>
-      <c r="D102" s="10">
-        <v>0</v>
-      </c>
-      <c r="E102" s="12">
+      <c r="C102" s="19">
+        <v>0</v>
+      </c>
+      <c r="D102" s="20">
+        <v>0</v>
+      </c>
+      <c r="E102" s="21">
         <v>10.557218750000001</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="22">
         <v>9.142819630809397</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
-      <c r="B103" s="1" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="9">
-        <v>0</v>
-      </c>
-      <c r="D103" s="10">
-        <v>0</v>
-      </c>
-      <c r="E103" s="12">
-        <v>0</v>
-      </c>
-      <c r="F103" s="18">
+      <c r="C103" s="19">
+        <v>0</v>
+      </c>
+      <c r="D103" s="20">
+        <v>0</v>
+      </c>
+      <c r="E103" s="21">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="32"/>
-      <c r="B104" s="19" t="s">
+      <c r="A104" s="37"/>
+      <c r="B104" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C104" s="20">
+      <c r="C104" s="24">
         <v>901.17020033333336</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="25">
         <v>502.27404669133074</v>
       </c>
-      <c r="E104" s="22">
+      <c r="E104" s="26">
         <v>722.95043275</v>
       </c>
-      <c r="F104" s="23">
+      <c r="F104" s="27">
         <v>79.469939360355056</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="13" t="s">
@@ -12735,362 +12731,362 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="1" t="s">
+      <c r="A106" s="36"/>
+      <c r="B106" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="19">
         <v>2.0901429999999999</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="20">
         <v>8.5911385935353544E-3</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="21">
         <v>2.0848392499999999</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="22">
         <v>3.2229357031866015E-3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="1" t="s">
+      <c r="A107" s="36"/>
+      <c r="B107" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="19">
         <v>2.0581489999999998</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="20">
         <v>2.0575172741276486E-3</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="21">
         <v>2.0591192500000002</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="22">
         <v>2.2794159716636214E-3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="1" t="s">
+      <c r="A108" s="36"/>
+      <c r="B108" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="19">
         <v>1.3688519999999997</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="20">
         <v>0.34822769207852122</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="21">
         <v>2.0317417500000001</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="22">
         <v>2.3827097854911285E-3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="1" t="s">
+      <c r="A109" s="36"/>
+      <c r="B109" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="19">
         <v>0.33580433333333332</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="20">
         <v>0.33580433333333332</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="21">
         <v>0.79593399999999992</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="22">
         <v>0.44613465573691979</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="B110" s="1" t="s">
+      <c r="A110" s="36"/>
+      <c r="B110" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="9">
-        <v>0</v>
-      </c>
-      <c r="D110" s="10">
-        <v>0</v>
-      </c>
-      <c r="E110" s="12">
-        <v>0</v>
-      </c>
-      <c r="F110" s="18">
+      <c r="C110" s="19">
+        <v>0</v>
+      </c>
+      <c r="D110" s="20">
+        <v>0</v>
+      </c>
+      <c r="E110" s="21">
+        <v>0</v>
+      </c>
+      <c r="F110" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
-      <c r="B111" s="1" t="s">
+      <c r="A111" s="36"/>
+      <c r="B111" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="9">
-        <v>0</v>
-      </c>
-      <c r="D111" s="10">
-        <v>0</v>
-      </c>
-      <c r="E111" s="12">
+      <c r="C111" s="19">
+        <v>0</v>
+      </c>
+      <c r="D111" s="20">
+        <v>0</v>
+      </c>
+      <c r="E111" s="21">
         <v>0.26509325</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="22">
         <v>0.22957748887177912</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="1" t="s">
+      <c r="A112" s="36"/>
+      <c r="B112" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="9">
-        <v>0</v>
-      </c>
-      <c r="D112" s="10">
-        <v>0</v>
-      </c>
-      <c r="E112" s="12">
-        <v>0</v>
-      </c>
-      <c r="F112" s="18">
+      <c r="C112" s="19">
+        <v>0</v>
+      </c>
+      <c r="D112" s="20">
+        <v>0</v>
+      </c>
+      <c r="E112" s="21">
+        <v>0</v>
+      </c>
+      <c r="F112" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
-      <c r="B113" s="1" t="s">
+      <c r="A113" s="36"/>
+      <c r="B113" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="9">
-        <v>0</v>
-      </c>
-      <c r="D113" s="10">
-        <v>0</v>
-      </c>
-      <c r="E113" s="12">
-        <v>0</v>
-      </c>
-      <c r="F113" s="18">
+      <c r="C113" s="19">
+        <v>0</v>
+      </c>
+      <c r="D113" s="20">
+        <v>0</v>
+      </c>
+      <c r="E113" s="21">
+        <v>0</v>
+      </c>
+      <c r="F113" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
-      <c r="B114" s="1" t="s">
+      <c r="A114" s="36"/>
+      <c r="B114" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="19">
         <v>0.36798233333333336</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="20">
         <v>0.36798233333333336</v>
       </c>
-      <c r="E114" s="12">
-        <v>0</v>
-      </c>
-      <c r="F114" s="18">
+      <c r="E114" s="21">
+        <v>0</v>
+      </c>
+      <c r="F114" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="1" t="s">
+      <c r="A115" s="36"/>
+      <c r="B115" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="19">
         <v>0.71405533333333338</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="20">
         <v>0.35891219721882472</v>
       </c>
-      <c r="E115" s="12">
-        <v>0</v>
-      </c>
-      <c r="F115" s="18">
+      <c r="E115" s="21">
+        <v>0</v>
+      </c>
+      <c r="F115" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="1" t="s">
+      <c r="A116" s="36"/>
+      <c r="B116" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C116" s="9">
-        <v>0</v>
-      </c>
-      <c r="D116" s="10">
-        <v>0</v>
-      </c>
-      <c r="E116" s="12">
+      <c r="C116" s="19">
+        <v>0</v>
+      </c>
+      <c r="D116" s="20">
+        <v>0</v>
+      </c>
+      <c r="E116" s="21">
         <v>0.35171950000000002</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="22">
         <v>0.30459802200636088</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="1" t="s">
+      <c r="A117" s="36"/>
+      <c r="B117" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C117" s="9">
-        <v>0</v>
-      </c>
-      <c r="D117" s="10">
-        <v>0</v>
-      </c>
-      <c r="E117" s="12">
-        <v>0</v>
-      </c>
-      <c r="F117" s="18">
+      <c r="C117" s="19">
+        <v>0</v>
+      </c>
+      <c r="D117" s="20">
+        <v>0</v>
+      </c>
+      <c r="E117" s="21">
+        <v>0</v>
+      </c>
+      <c r="F117" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="1" t="s">
+      <c r="A118" s="36"/>
+      <c r="B118" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="9">
-        <v>0</v>
-      </c>
-      <c r="D118" s="10">
-        <v>0</v>
-      </c>
-      <c r="E118" s="12">
-        <v>0</v>
-      </c>
-      <c r="F118" s="18">
+      <c r="C118" s="19">
+        <v>0</v>
+      </c>
+      <c r="D118" s="20">
+        <v>0</v>
+      </c>
+      <c r="E118" s="21">
+        <v>0</v>
+      </c>
+      <c r="F118" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="1" t="s">
+      <c r="A119" s="36"/>
+      <c r="B119" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="9">
-        <v>0</v>
-      </c>
-      <c r="D119" s="10">
-        <v>0</v>
-      </c>
-      <c r="E119" s="12">
-        <v>0</v>
-      </c>
-      <c r="F119" s="18">
+      <c r="C119" s="19">
+        <v>0</v>
+      </c>
+      <c r="D119" s="20">
+        <v>0</v>
+      </c>
+      <c r="E119" s="21">
+        <v>0</v>
+      </c>
+      <c r="F119" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="1" t="s">
+      <c r="A120" s="36"/>
+      <c r="B120" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="19">
         <v>0.53319099999999997</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="20">
         <v>0.53319099999999997</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="21">
         <v>0.32317800000000002</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="22">
         <v>0.27988035794424732</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="1" t="s">
+      <c r="A121" s="36"/>
+      <c r="B121" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C121" s="9">
-        <v>0</v>
-      </c>
-      <c r="D121" s="10">
-        <v>0</v>
-      </c>
-      <c r="E121" s="12">
-        <v>0</v>
-      </c>
-      <c r="F121" s="18">
+      <c r="C121" s="19">
+        <v>0</v>
+      </c>
+      <c r="D121" s="20">
+        <v>0</v>
+      </c>
+      <c r="E121" s="21">
+        <v>0</v>
+      </c>
+      <c r="F121" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="1" t="s">
+      <c r="A122" s="36"/>
+      <c r="B122" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="9">
-        <v>0</v>
-      </c>
-      <c r="D122" s="10">
-        <v>0</v>
-      </c>
-      <c r="E122" s="12">
+      <c r="C122" s="19">
+        <v>0</v>
+      </c>
+      <c r="D122" s="20">
+        <v>0</v>
+      </c>
+      <c r="E122" s="21">
         <v>0.92745350000000004</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="22">
         <v>0.27168083051452585</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="1" t="s">
+      <c r="A123" s="36"/>
+      <c r="B123" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="9">
-        <v>0</v>
-      </c>
-      <c r="D123" s="10">
-        <v>0</v>
-      </c>
-      <c r="E123" s="12">
+      <c r="C123" s="19">
+        <v>0</v>
+      </c>
+      <c r="D123" s="20">
+        <v>0</v>
+      </c>
+      <c r="E123" s="21">
         <v>0.32533849999999997</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="22">
         <v>0.28175140582912356</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="1" t="s">
+      <c r="A124" s="36"/>
+      <c r="B124" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C124" s="9">
-        <v>0</v>
-      </c>
-      <c r="D124" s="10">
-        <v>0</v>
-      </c>
-      <c r="E124" s="12">
-        <v>0</v>
-      </c>
-      <c r="F124" s="18">
+      <c r="C124" s="19">
+        <v>0</v>
+      </c>
+      <c r="D124" s="20">
+        <v>0</v>
+      </c>
+      <c r="E124" s="21">
+        <v>0</v>
+      </c>
+      <c r="F124" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="32"/>
-      <c r="B125" s="19" t="s">
+      <c r="A125" s="37"/>
+      <c r="B125" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C125" s="20">
+      <c r="C125" s="24">
         <v>217.53210833333333</v>
       </c>
-      <c r="D125" s="21">
+      <c r="D125" s="25">
         <v>215.64048723618021</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="26">
         <v>2.4045770000000002</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="27">
         <v>2.5323654056040177E-2</v>
       </c>
     </row>
